--- a/data/trans_orig/Q5410-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Clase-trans_orig.xlsx
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5412</v>
+        <v>5430</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04700593135308719</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2229529396137269</v>
+        <v>0.2237063266787716</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5209</v>
+        <v>6319</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01188263730392363</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05424750441971093</v>
+        <v>0.06580688966234702</v>
       </c>
     </row>
     <row r="13">
@@ -1239,19 +1239,19 @@
         <v>2597</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6282</v>
+        <v>7344</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03619584494031416</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01105062245230653</v>
+        <v>0.01121867637058997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08754626914759879</v>
+        <v>0.1023487911631374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5241</v>
+        <v>5186</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04267926274394805</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2158938440050607</v>
+        <v>0.2136164788849115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1281,19 +1281,19 @@
         <v>3633</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>930</v>
+        <v>1030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9015</v>
+        <v>9492</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03783478921889238</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009681977625480396</v>
+        <v>0.01072161561860952</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09387545238189506</v>
+        <v>0.098846355301039</v>
       </c>
     </row>
     <row r="14">
@@ -1310,19 +1310,19 @@
         <v>69157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65472</v>
+        <v>64410</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70961</v>
+        <v>70949</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9638041550596859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9124537308524017</v>
+        <v>0.8976512088368614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9889493775476935</v>
+        <v>0.9887813236294101</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1331,7 +1331,7 @@
         <v>22098</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17837</v>
+        <v>16824</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>24275</v>
@@ -1340,7 +1340,7 @@
         <v>0.9103148059029648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7348078882540632</v>
+        <v>0.6930705136934472</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1352,19 +1352,19 @@
         <v>91256</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85343</v>
+        <v>85118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>94250</v>
+        <v>94222</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.950282573477184</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8887155722501919</v>
+        <v>0.886371203396867</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9814596268582249</v>
+        <v>0.9811745294458517</v>
       </c>
     </row>
     <row r="15">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4209</v>
+        <v>4198</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003223737916188139</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01618288850859328</v>
+        <v>0.01614221778263698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4591</v>
+        <v>4226</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002424365503233344</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01327663565964646</v>
+        <v>0.01221922533836152</v>
       </c>
     </row>
     <row r="17">
@@ -1519,19 +1519,19 @@
         <v>4506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1721</v>
+        <v>1740</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9868</v>
+        <v>10027</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01732746260384921</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006618386866382224</v>
+        <v>0.006690398942014979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03794278646461121</v>
+        <v>0.03855616526058107</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1540,19 +1540,19 @@
         <v>3060</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9042</v>
+        <v>8279</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03568171553124566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01038545724069474</v>
+        <v>0.01040792782757398</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1054460594359837</v>
+        <v>0.0965512062592641</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1561,19 +1561,19 @@
         <v>7566</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3658</v>
+        <v>3485</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14603</v>
+        <v>13126</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02187866491371442</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01057899253548301</v>
+        <v>0.01007624462018322</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0422267359867587</v>
+        <v>0.03795512980624397</v>
       </c>
     </row>
     <row r="18">
@@ -1590,19 +1590,19 @@
         <v>254727</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>249050</v>
+        <v>249195</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>258236</v>
+        <v>258153</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9794487994799627</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9576186177825499</v>
+        <v>0.9581774355128159</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9929407766735968</v>
+        <v>0.9926227207428515</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>85</v>
@@ -1611,19 +1611,19 @@
         <v>82692</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>76710</v>
+        <v>77473</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84861</v>
+        <v>84859</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9643182844687543</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8945539405640163</v>
+        <v>0.9034487937407358</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9896145427593053</v>
+        <v>0.9895920721724261</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>356</v>
@@ -1632,19 +1632,19 @@
         <v>337419</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>330698</v>
+        <v>331618</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>341769</v>
+        <v>341937</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9756969695830522</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9562605357416698</v>
+        <v>0.9589227143455661</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.988273035627812</v>
+        <v>0.9887602785931489</v>
       </c>
     </row>
     <row r="19">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6350</v>
+        <v>7341</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01271512207838127</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06596919927029979</v>
+        <v>0.07627060579827719</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6030</v>
+        <v>6166</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008066619495762321</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03974601188394222</v>
+        <v>0.04064524079198414</v>
       </c>
     </row>
     <row r="21">
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8339</v>
+        <v>8099</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02531458583568471</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>5.791392940542927e-07</v>
+        <v>5.773353355314887e-07</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08664017107810106</v>
+        <v>0.08414318463613098</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1836,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7901</v>
+        <v>8323</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01605986402415096</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>3.715144067873826e-07</v>
+        <v>3.71613285160816e-07</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05207970455089175</v>
+        <v>0.05485760297276723</v>
       </c>
     </row>
     <row r="22">
@@ -1875,19 +1875,19 @@
         <v>92590</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>86227</v>
+        <v>86390</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>95137</v>
+        <v>95128</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.961970292085934</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8958698176280262</v>
+        <v>0.897554525665205</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9884340519055974</v>
+        <v>0.9883399397534703</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -1896,19 +1896,19 @@
         <v>148055</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>142335</v>
+        <v>141939</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>150588</v>
+        <v>150611</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9758735164800867</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9381727562618845</v>
+        <v>0.9355666326668788</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9925731105569422</v>
+        <v>0.9927240640112944</v>
       </c>
     </row>
     <row r="23">
@@ -2013,19 +2013,19 @@
         <v>4389</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10977</v>
+        <v>10762</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01032569474414143</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002750969884286373</v>
+        <v>0.002754393761637358</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02582441985767712</v>
+        <v>0.02531766725474545</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2034,19 +2034,19 @@
         <v>4389</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1170</v>
+        <v>1122</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10774</v>
+        <v>11260</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01023790440716689</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002730110434227052</v>
+        <v>0.002616367810618525</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02513081035608625</v>
+        <v>0.02626477932337865</v>
       </c>
     </row>
     <row r="25">
@@ -2076,19 +2076,19 @@
         <v>11152</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5547</v>
+        <v>4676</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20360</v>
+        <v>19709</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02623619746744229</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01304986750622459</v>
+        <v>0.01100142042449021</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04789889086770005</v>
+        <v>0.0463656491336822</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2097,19 +2097,19 @@
         <v>11152</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5227</v>
+        <v>5087</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20685</v>
+        <v>19891</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02601313406360653</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01219314126425058</v>
+        <v>0.01186595804325673</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04824824668876536</v>
+        <v>0.04639786605510668</v>
       </c>
     </row>
     <row r="26">
@@ -2139,19 +2139,19 @@
         <v>409529</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>399228</v>
+        <v>399463</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>416034</v>
+        <v>417097</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9634381077884163</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9392047476448857</v>
+        <v>0.9397590431765088</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.97874189322904</v>
+        <v>0.9812428493296685</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>403</v>
@@ -2160,19 +2160,19 @@
         <v>413174</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>402779</v>
+        <v>403522</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>419988</v>
+        <v>420952</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9637489615292266</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.93950210661491</v>
+        <v>0.9412352694154325</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9796445243527436</v>
+        <v>0.9818925972520726</v>
       </c>
     </row>
     <row r="27">
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4849</v>
+        <v>4236</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001671623538634679</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009668018228167572</v>
+        <v>0.008444808103215967</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2285,19 +2285,19 @@
         <v>6754</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3231</v>
+        <v>2927</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14286</v>
+        <v>14012</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009978784360956793</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00477325294181689</v>
+        <v>0.004324428018741523</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02110702204958015</v>
+        <v>0.02070177640294852</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2306,19 +2306,19 @@
         <v>7592</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3271</v>
+        <v>3280</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15586</v>
+        <v>15741</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006443067174589228</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002775432551421882</v>
+        <v>0.002783693458643821</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01322655610975033</v>
+        <v>0.013357765224303</v>
       </c>
     </row>
     <row r="29">
@@ -2335,19 +2335,19 @@
         <v>7104</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3526</v>
+        <v>3491</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13657</v>
+        <v>12957</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01416325464835295</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007030382666968575</v>
+        <v>0.00696132071253523</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02722944877799213</v>
+        <v>0.02583453989787898</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -2356,19 +2356,19 @@
         <v>17685</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10088</v>
+        <v>10270</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29615</v>
+        <v>28165</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02612809468588525</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01490424926158812</v>
+        <v>0.01517378369552474</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04375470705003394</v>
+        <v>0.04161230595283975</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>24</v>
@@ -2377,19 +2377,19 @@
         <v>24788</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16140</v>
+        <v>16543</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36061</v>
+        <v>36476</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02103558577006335</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01369642080581911</v>
+        <v>0.01403877611555485</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0306021030105221</v>
+        <v>0.03095377285281489</v>
       </c>
     </row>
     <row r="30">
@@ -2406,19 +2406,19 @@
         <v>493609</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>486499</v>
+        <v>487542</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>497243</v>
+        <v>497224</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9841651218130124</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9699895893420378</v>
+        <v>0.9720684385935997</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9914109737613273</v>
+        <v>0.9913727523514053</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>639</v>
@@ -2427,19 +2427,19 @@
         <v>652403</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>639844</v>
+        <v>639905</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>661048</v>
+        <v>661311</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9638931209531579</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9453375123919308</v>
+        <v>0.9454281418610584</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9766658637456032</v>
+        <v>0.9770531233842533</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1152</v>
@@ -2448,19 +2448,19 @@
         <v>1146012</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1133389</v>
+        <v>1132945</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1155698</v>
+        <v>1156031</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9725213470553474</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9618093045131363</v>
+        <v>0.9614318020892209</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9807407729563647</v>
+        <v>0.9810235884754361</v>
       </c>
     </row>
     <row r="31">
@@ -3057,19 +3057,19 @@
         <v>3296</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9206</v>
+        <v>9043</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05435721835964558</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01610274476318622</v>
+        <v>0.01608764670773587</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.151832038613599</v>
+        <v>0.1491428706687434</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5234</v>
+        <v>5299</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2768808383322872</v>
+        <v>0.2803617107668089</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3099,19 +3099,19 @@
         <v>4409</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1166</v>
+        <v>1120</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11331</v>
+        <v>10259</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05543423491486362</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01465694824534232</v>
+        <v>0.01408117358711993</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1424779775125937</v>
+        <v>0.1289986372115974</v>
       </c>
     </row>
     <row r="10">
@@ -3128,19 +3128,19 @@
         <v>57334</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51424</v>
+        <v>51587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59654</v>
+        <v>59655</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9456427816403544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8481679613864012</v>
+        <v>0.850857129331257</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9838972552368138</v>
+        <v>0.9839123532922642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -3149,7 +3149,7 @@
         <v>17789</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13668</v>
+        <v>13603</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>18902</v>
@@ -3158,7 +3158,7 @@
         <v>0.9411110672490366</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.723119161667713</v>
+        <v>0.7196382892331911</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -3170,19 +3170,19 @@
         <v>75122</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68200</v>
+        <v>69272</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78365</v>
+        <v>78411</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9445657650851363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8575220224874064</v>
+        <v>0.8710013627884027</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9853430517546576</v>
+        <v>0.9859188264128801</v>
       </c>
     </row>
     <row r="11">
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5377</v>
+        <v>4790</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008065458561104017</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0453171476787622</v>
+        <v>0.04037383444658457</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6080</v>
+        <v>4993</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01859185261245946</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1113278954845284</v>
+        <v>0.09142930166964049</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6867</v>
+        <v>6333</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01138340540690169</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03963454930093988</v>
+        <v>0.03655151425897307</v>
       </c>
     </row>
     <row r="13">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7390</v>
+        <v>7781</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01755143386093154</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06228296875128216</v>
+        <v>0.06557997800993109</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7127</v>
+        <v>7210</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.012019176153877</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0411311643407966</v>
+        <v>0.04161126229376069</v>
       </c>
     </row>
     <row r="14">
@@ -3408,19 +3408,19 @@
         <v>115613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110068</v>
+        <v>108904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117695</v>
+        <v>117696</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9743831075779644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9276429378836853</v>
+        <v>0.9178353779659324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9919301652424835</v>
+        <v>0.9919369776645027</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -3429,7 +3429,7 @@
         <v>53600</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48535</v>
+        <v>49622</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>54615</v>
@@ -3438,7 +3438,7 @@
         <v>0.9814081473875406</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.888672104515469</v>
+        <v>0.9085706983303594</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3450,19 +3450,19 @@
         <v>169213</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>163615</v>
+        <v>163381</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>172267</v>
+        <v>172280</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9765974184392213</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9442903092982595</v>
+        <v>0.9429405782305778</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9942204555137464</v>
+        <v>0.9942983698628609</v>
       </c>
     </row>
     <row r="15">
@@ -3554,19 +3554,19 @@
         <v>4185</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9928</v>
+        <v>9496</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01805721552481761</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004626459794046541</v>
+        <v>0.004580199360859853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04283773720212734</v>
+        <v>0.04097280578097399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3588,19 +3588,19 @@
         <v>4185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9824</v>
+        <v>9523</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0143390056818306</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003535182040595579</v>
+        <v>0.003619385770996394</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03366155906630214</v>
+        <v>0.03262970508687143</v>
       </c>
     </row>
     <row r="17">
@@ -3617,19 +3617,19 @@
         <v>9764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3544</v>
+        <v>4346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19763</v>
+        <v>21172</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.042131057653102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01529170484560135</v>
+        <v>0.0187536028449452</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08527581103855467</v>
+        <v>0.0913552535769758</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7379</v>
+        <v>6480</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03476939420671542</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1227920985447804</v>
+        <v>0.1078312874170969</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -3659,19 +3659,19 @@
         <v>11853</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5474</v>
+        <v>5512</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23210</v>
+        <v>20694</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04061519772168055</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01875680361404928</v>
+        <v>0.01888678709407415</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07952672511669956</v>
+        <v>0.07090803857577097</v>
       </c>
     </row>
     <row r="18">
@@ -3688,19 +3688,19 @@
         <v>217804</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>207463</v>
+        <v>206744</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>225008</v>
+        <v>224249</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9398117268220804</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8951919085631227</v>
+        <v>0.8920878436620723</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9708962540440754</v>
+        <v>0.9676187897153971</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -3709,7 +3709,7 @@
         <v>58006</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52716</v>
+        <v>53615</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>60095</v>
@@ -3718,7 +3718,7 @@
         <v>0.9652306057932846</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8772079014552197</v>
+        <v>0.8921687125829028</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -3730,19 +3730,19 @@
         <v>275810</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>264485</v>
+        <v>265506</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>283348</v>
+        <v>283113</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9450457965964888</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9062420676379427</v>
+        <v>0.9097401309210735</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9708766041725517</v>
+        <v>0.9700687841635978</v>
       </c>
     </row>
     <row r="19">
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7027</v>
+        <v>6354</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0197667911048966</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0684242824143983</v>
+        <v>0.06187103581610835</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -3855,19 +3855,19 @@
         <v>5552</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2082</v>
+        <v>2070</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13384</v>
+        <v>12304</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02947164925351876</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01105112051303606</v>
+        <v>0.01098650585408181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07104153937943747</v>
+        <v>0.06530818379383985</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -3876,19 +3876,19 @@
         <v>7582</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3563</v>
+        <v>3109</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15649</v>
+        <v>14870</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02604787391047509</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01223957997409148</v>
+        <v>0.01067956420373871</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05376047826374485</v>
+        <v>0.0510830252168363</v>
       </c>
     </row>
     <row r="21">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6697</v>
+        <v>7749</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02184829037998856</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06521431764033661</v>
+        <v>0.07546045426852771</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -3926,19 +3926,19 @@
         <v>9637</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4436</v>
+        <v>4455</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18077</v>
+        <v>16841</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05115137903048438</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02354486309254019</v>
+        <v>0.02364442461753806</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09594904592762325</v>
+        <v>0.08938805757611752</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -3947,19 +3947,19 @@
         <v>11881</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6462</v>
+        <v>6294</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20027</v>
+        <v>19739</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04081354710546709</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02219918518256146</v>
+        <v>0.02162141555371553</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06879705328526593</v>
+        <v>0.06780988830826799</v>
       </c>
     </row>
     <row r="22">
@@ -3976,19 +3976,19 @@
         <v>98422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>92888</v>
+        <v>92066</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101586</v>
+        <v>101612</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9583849185151149</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9044974098165146</v>
+        <v>0.8964866251113488</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9891944337179968</v>
+        <v>0.989446261921937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>163</v>
@@ -3997,19 +3997,19 @@
         <v>173211</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>164635</v>
+        <v>164253</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>179990</v>
+        <v>179975</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9193769717159969</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8738594406389897</v>
+        <v>0.8718331452450431</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.955359562314357</v>
+        <v>0.9552824599145918</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>255</v>
@@ -4018,19 +4018,19 @@
         <v>271633</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>261611</v>
+        <v>261589</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>278936</v>
+        <v>279381</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9331385789840578</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8987103354755807</v>
+        <v>0.8986358685410897</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9582258725472788</v>
+        <v>0.9597549868772215</v>
       </c>
     </row>
     <row r="23">
@@ -4135,19 +4135,19 @@
         <v>13999</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7444</v>
+        <v>7712</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23553</v>
+        <v>24433</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03546625100823213</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01886026203755758</v>
+        <v>0.01953940716694685</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0596735545341943</v>
+        <v>0.06190094131264838</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -4156,19 +4156,19 @@
         <v>13999</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7718</v>
+        <v>7474</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22994</v>
+        <v>24308</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0352885384817055</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01945702177348047</v>
+        <v>0.01884101906373278</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05796497678958622</v>
+        <v>0.0612769597424758</v>
       </c>
     </row>
     <row r="25">
@@ -4198,19 +4198,19 @@
         <v>7519</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3142</v>
+        <v>3176</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14246</v>
+        <v>15264</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01904968991659952</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007959130335315786</v>
+        <v>0.008046195670750957</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03609341386664968</v>
+        <v>0.03867259139491895</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -4219,19 +4219,19 @@
         <v>7519</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3246</v>
+        <v>3242</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14332</v>
+        <v>15539</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0189542366778616</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00818226868365224</v>
+        <v>0.008173488961693832</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0361281696947592</v>
+        <v>0.03917202502493902</v>
       </c>
     </row>
     <row r="26">
@@ -4261,19 +4261,19 @@
         <v>373186</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>362175</v>
+        <v>360291</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>381746</v>
+        <v>381059</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9454840590751683</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9175864197388633</v>
+        <v>0.9128139455086903</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9671701028803306</v>
+        <v>0.9654295387239245</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>351</v>
@@ -4282,19 +4282,19 @@
         <v>375174</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>364081</v>
+        <v>362738</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>382785</v>
+        <v>383046</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9457572248404329</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9177920294541994</v>
+        <v>0.9144070137086368</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9649432424443181</v>
+        <v>0.9655998183481689</v>
       </c>
     </row>
     <row r="27">
@@ -4386,19 +4386,19 @@
         <v>7172</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3097</v>
+        <v>3081</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14087</v>
+        <v>14414</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01281504064538234</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00553405944379542</v>
+        <v>0.005505689737754913</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02517123669495992</v>
+        <v>0.02575518389268858</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>18</v>
@@ -4407,19 +4407,19 @@
         <v>20567</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12435</v>
+        <v>12168</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31499</v>
+        <v>31430</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02771751824113278</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01675861305064577</v>
+        <v>0.01639830480097448</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04245157447569282</v>
+        <v>0.04235825521712989</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -4428,19 +4428,19 @@
         <v>27738</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>18711</v>
+        <v>19066</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>41984</v>
+        <v>40974</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02131024321013041</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01437478060043193</v>
+        <v>0.01464756805391158</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0322545526671014</v>
+        <v>0.03147886874374795</v>
       </c>
     </row>
     <row r="29">
@@ -4457,19 +4457,19 @@
         <v>17386</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10371</v>
+        <v>9767</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28041</v>
+        <v>28986</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03106641649654497</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01853122504779899</v>
+        <v>0.0174532372469339</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05010485224868552</v>
+        <v>0.05179428548364484</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -4478,19 +4478,19 @@
         <v>20358</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12685</v>
+        <v>12853</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30274</v>
+        <v>30428</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02743714353921566</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01709597278381802</v>
+        <v>0.01732203597211113</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04080065966332093</v>
+        <v>0.04100807289039135</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>33</v>
@@ -4499,19 +4499,19 @@
         <v>37744</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26459</v>
+        <v>26221</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>52209</v>
+        <v>55456</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02899753843669359</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02032728928193209</v>
+        <v>0.02014478103210521</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04010972822313287</v>
+        <v>0.04260448345160826</v>
       </c>
     </row>
     <row r="30">
@@ -4528,19 +4528,19 @@
         <v>535079</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>523336</v>
+        <v>522665</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>543292</v>
+        <v>543920</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9561185428580727</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9351353915628097</v>
+        <v>0.9339358007288864</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9707936743555293</v>
+        <v>0.9719148797590047</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>656</v>
@@ -4549,19 +4549,19 @@
         <v>701080</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>687724</v>
+        <v>686238</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>712536</v>
+        <v>713206</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9448453382196516</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9268451570208583</v>
+        <v>0.9248421810544466</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9602852877282793</v>
+        <v>0.9611870552288585</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1139</v>
@@ -4570,19 +4570,19 @@
         <v>1236159</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1216804</v>
+        <v>1217214</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1251633</v>
+        <v>1250171</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.949692218353176</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9348224181431265</v>
+        <v>0.9351370548919958</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9615799829973157</v>
+        <v>0.9604566702322375</v>
       </c>
     </row>
     <row r="31">
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6956</v>
+        <v>7046</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01303626473287373</v>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06590828906465615</v>
+        <v>0.06676355562504785</v>
       </c>
     </row>
     <row r="6">
@@ -5039,7 +5039,7 @@
         <v>35512</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29922</v>
+        <v>30412</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>36888</v>
@@ -5048,7 +5048,7 @@
         <v>0.9627040069345654</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8111690604689827</v>
+        <v>0.8244444451238445</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>104159</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>98579</v>
+        <v>98489</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>105535</v>
@@ -5069,7 +5069,7 @@
         <v>0.9869637352671262</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9340917109353439</v>
+        <v>0.9332364443749521</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3833</v>
+        <v>4656</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01709365262730424</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0718568759960312</v>
+        <v>0.08728094214505915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3888</v>
+        <v>5185</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01285514895598794</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05481197258294829</v>
+        <v>0.07309532540556307</v>
       </c>
     </row>
     <row r="9">
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5101</v>
+        <v>5085</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0191261313083843</v>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09563015008483731</v>
+        <v>0.09533399087203125</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5526</v>
+        <v>5962</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01438365879322538</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07791052135298308</v>
+        <v>0.08404630890212209</v>
       </c>
     </row>
     <row r="10">
@@ -5290,7 +5290,7 @@
         <v>51412</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47666</v>
+        <v>47153</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>53344</v>
@@ -5299,7 +5299,7 @@
         <v>0.9637802160643114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8935652974225209</v>
+        <v>0.883934907425727</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         <v>69000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64793</v>
+        <v>64250</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>70932</v>
@@ -5333,7 +5333,7 @@
         <v>0.9727611922507867</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9134549070111461</v>
+        <v>0.905793884662826</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4527</v>
+        <v>4662</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007419590169216484</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03764191152886145</v>
+        <v>0.03876771360308678</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4491</v>
+        <v>5395</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005360054184697013</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02697575131453833</v>
+        <v>0.03240692223119501</v>
       </c>
     </row>
     <row r="13">
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7241</v>
+        <v>7176</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01699977080095058</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06021336772839761</v>
+        <v>0.05966985354591124</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6694</v>
+        <v>7075</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01228096034179575</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04021235960296046</v>
+        <v>0.04249995367068267</v>
       </c>
     </row>
     <row r="14">
@@ -5554,7 +5554,7 @@
         <v>117324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>112076</v>
+        <v>111550</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>119467</v>
@@ -5563,10 +5563,10 @@
         <v>0.9755806390298329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9319394030650395</v>
+        <v>0.9275671701100963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.993395095636491</v>
+        <v>0.9933955915975502</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -5588,19 +5588,19 @@
         <v>163533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>158396</v>
+        <v>158632</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165676</v>
+        <v>165681</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9823589854735072</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9514980630159573</v>
+        <v>0.9529135599799498</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9952321014981741</v>
+        <v>0.9952618817181502</v>
       </c>
     </row>
     <row r="15">
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7042</v>
+        <v>6367</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008718968069586185</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03454199488606909</v>
+        <v>0.0312307795820887</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6016</v>
+        <v>5784</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005867948455554857</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01986245110520862</v>
+        <v>0.01909632825697802</v>
       </c>
     </row>
     <row r="17">
@@ -5755,19 +5755,19 @@
         <v>4976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10688</v>
+        <v>10113</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02440989218338694</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008431084313438577</v>
+        <v>0.008402784637573019</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05242677645012362</v>
+        <v>0.04960762381330222</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8795</v>
+        <v>7203</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02244826456662149</v>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08879523554629187</v>
+        <v>0.07272183616083995</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -5797,19 +5797,19 @@
         <v>7200</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3035</v>
+        <v>3445</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13320</v>
+        <v>14386</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02376845861393366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01002093749016773</v>
+        <v>0.01137196081870457</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04397557894273613</v>
+        <v>0.04749329381752199</v>
       </c>
     </row>
     <row r="18">
@@ -5826,19 +5826,19 @@
         <v>197102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>190508</v>
+        <v>191475</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>200462</v>
+        <v>200583</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9668711397470269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9345218125117614</v>
+        <v>0.9392670860039181</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9833525527991842</v>
+        <v>0.9839422999272955</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>82</v>
@@ -5847,7 +5847,7 @@
         <v>96823</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>90251</v>
+        <v>91843</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>99046</v>
@@ -5856,7 +5856,7 @@
         <v>0.9775517354333785</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9112047644537069</v>
+        <v>0.9272781638391594</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -5868,19 +5868,19 @@
         <v>293925</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>287278</v>
+        <v>286628</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>298712</v>
+        <v>298452</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9703635929305114</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9484183095786423</v>
+        <v>0.9462719183065605</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9861676850946082</v>
+        <v>0.9853085717670272</v>
       </c>
     </row>
     <row r="19">
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5644</v>
+        <v>6601</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01298788522484358</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03886517349512408</v>
+        <v>0.04545673546253217</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7739</v>
+        <v>6785</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008442735325471316</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04850817479937208</v>
+        <v>0.04252844347370387</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6014,19 +6014,19 @@
         <v>3233</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9031</v>
+        <v>8961</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01060846020503631</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002990006902504908</v>
+        <v>0.002984291129244017</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02963079869664852</v>
+        <v>0.02940215030583033</v>
       </c>
     </row>
     <row r="21">
@@ -6043,19 +6043,19 @@
         <v>4159</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1563</v>
+        <v>1598</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9302</v>
+        <v>9152</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02864159004326249</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01076578964573706</v>
+        <v>0.01100455477626338</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06405499166052882</v>
+        <v>0.06302012933387284</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8579</v>
+        <v>8283</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01414112561880807</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05377057665539364</v>
+        <v>0.05191668676505726</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -6085,19 +6085,19 @@
         <v>6416</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2920</v>
+        <v>2853</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12674</v>
+        <v>12170</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0210504723432418</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009582163631310269</v>
+        <v>0.009362704671457073</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04158475855703846</v>
+        <v>0.03993012278985154</v>
       </c>
     </row>
     <row r="22">
@@ -6114,19 +6114,19 @@
         <v>139176</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>133683</v>
+        <v>133180</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142680</v>
+        <v>142596</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9583705247318939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9205486782240083</v>
+        <v>0.9170820886258297</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9824993122335015</v>
+        <v>0.9819246017312456</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>136</v>
@@ -6135,19 +6135,19 @@
         <v>155947</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148882</v>
+        <v>149176</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>158586</v>
+        <v>158579</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9774161390557207</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.933134288987407</v>
+        <v>0.9349780889468763</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9939556588948124</v>
+        <v>0.9939167226944745</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>288</v>
@@ -6156,19 +6156,19 @@
         <v>295122</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>287032</v>
+        <v>287616</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>299879</v>
+        <v>299972</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9683410674517219</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9417964263174849</v>
+        <v>0.9437132208945813</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9839475617772372</v>
+        <v>0.9842534294086992</v>
       </c>
     </row>
     <row r="23">
@@ -6269,19 +6269,19 @@
         <v>8094</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3261</v>
+        <v>2502</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17087</v>
+        <v>16887</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01959484415368714</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007895028024199368</v>
+        <v>0.006056182803805167</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04136572821470869</v>
+        <v>0.04087986150768412</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -6290,19 +6290,19 @@
         <v>8094</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3261</v>
+        <v>2502</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17087</v>
+        <v>16887</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01959484415368714</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007895028024199368</v>
+        <v>0.006056182803805167</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04136572821470869</v>
+        <v>0.04087986150768412</v>
       </c>
     </row>
     <row r="25">
@@ -6328,19 +6328,19 @@
         <v>8254</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3442</v>
+        <v>3393</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15493</v>
+        <v>15679</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01998067238400422</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008331601549564929</v>
+        <v>0.008214523836001844</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03750550318140472</v>
+        <v>0.03795662475367145</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -6349,19 +6349,19 @@
         <v>8254</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3442</v>
+        <v>3393</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15493</v>
+        <v>15679</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01998067238400422</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008331601549564929</v>
+        <v>0.008214523836001844</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03750550318140472</v>
+        <v>0.03795662475367145</v>
       </c>
     </row>
     <row r="26">
@@ -6387,19 +6387,19 @@
         <v>396735</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>386171</v>
+        <v>386297</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>403826</v>
+        <v>405025</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9604244834623087</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9348511499888442</v>
+        <v>0.9351553876550731</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9775899035600015</v>
+        <v>0.9804941143363322</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>334</v>
@@ -6408,19 +6408,19 @@
         <v>396735</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>386171</v>
+        <v>386297</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>403826</v>
+        <v>405025</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9604244834623087</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9348511499888442</v>
+        <v>0.9351553876550731</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9775899035600015</v>
+        <v>0.9804941143363322</v>
       </c>
     </row>
     <row r="27">
@@ -6500,19 +6500,19 @@
         <v>5468</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2518</v>
+        <v>2641</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11695</v>
+        <v>11829</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009246389023633096</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004258976510613297</v>
+        <v>0.00446570114790034</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01977822276548868</v>
+        <v>0.02000448643722856</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -6521,19 +6521,19 @@
         <v>9441</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3862</v>
+        <v>3794</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19308</v>
+        <v>18690</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01222393995154186</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005000176883164771</v>
+        <v>0.004912142553802961</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02499873053285629</v>
+        <v>0.02419826580548482</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -6542,19 +6542,19 @@
         <v>14909</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7856</v>
+        <v>8140</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25274</v>
+        <v>24769</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01093280582870692</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005760534157434361</v>
+        <v>0.005968886774618067</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01853366780165661</v>
+        <v>0.01816349819247625</v>
       </c>
     </row>
     <row r="29">
@@ -6571,19 +6571,19 @@
         <v>12200</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6636</v>
+        <v>6886</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20006</v>
+        <v>19213</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02063172477147526</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01122216033787344</v>
+        <v>0.01164454292966053</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03383208634079743</v>
+        <v>0.03249158621987115</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -6592,19 +6592,19 @@
         <v>14109</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7846</v>
+        <v>7471</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23864</v>
+        <v>23743</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01826739856170087</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01015882847151276</v>
+        <v>0.009672458677614605</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03089687248144178</v>
+        <v>0.03074065214939185</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -6613,19 +6613,19 @@
         <v>26309</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18605</v>
+        <v>17691</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>39270</v>
+        <v>38271</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01929262443385638</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01364330768931036</v>
+        <v>0.01297255063663237</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02879711212697431</v>
+        <v>0.02806444442308787</v>
       </c>
     </row>
     <row r="30">
@@ -6642,19 +6642,19 @@
         <v>573660</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>564810</v>
+        <v>563887</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>580403</v>
+        <v>580085</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9701218862048916</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9551557465414221</v>
+        <v>0.9535949488093393</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9815248110086831</v>
+        <v>0.9809875254299332</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>631</v>
@@ -6663,19 +6663,19 @@
         <v>748814</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>736421</v>
+        <v>736248</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>757433</v>
+        <v>758139</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9695086614867573</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9534630329500691</v>
+        <v>0.9532398970445231</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9806684877617095</v>
+        <v>0.9815826058176046</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1238</v>
@@ -6684,19 +6684,19 @@
         <v>1322474</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1307330</v>
+        <v>1307459</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1333800</v>
+        <v>1333713</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9697745697374367</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9586696218114259</v>
+        <v>0.9587641493003387</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9780800119383627</v>
+        <v>0.9780165706965127</v>
       </c>
     </row>
     <row r="31">
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3514</v>
+        <v>3830</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005509117328824958</v>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02918269890561178</v>
+        <v>0.03181162084542793</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3713</v>
+        <v>4099</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00856446758435642</v>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04980530423499362</v>
+        <v>0.05497705435623888</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4187</v>
+        <v>3914</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00667758161552278</v>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02147794869000864</v>
+        <v>0.02007533425800473</v>
       </c>
     </row>
     <row r="6">
@@ -7148,7 +7148,7 @@
         <v>119738</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116887</v>
+        <v>116571</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>120401</v>
@@ -7157,7 +7157,7 @@
         <v>0.994490882671175</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9708173010943868</v>
+        <v>0.9681883791545726</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -7169,16 +7169,16 @@
         <v>73920</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>70846</v>
+        <v>70460</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>74559</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9914355324156435</v>
+        <v>0.9914355324156437</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9501946957650061</v>
+        <v>0.9450229456437622</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -7190,16 +7190,16 @@
         <v>193658</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>190773</v>
+        <v>191046</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>194960</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9933224183844773</v>
+        <v>0.9933224183844772</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9785220513099885</v>
+        <v>0.9799246657419953</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3286</v>
+        <v>2967</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01177657465463824</v>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05933404774105633</v>
+        <v>0.05356348167217256</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -7378,16 +7378,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3258</v>
+        <v>2661</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.004073973200110671</v>
+        <v>0.004073973200110672</v>
       </c>
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02035061068232339</v>
+        <v>0.01661888509971599</v>
       </c>
     </row>
     <row r="10">
@@ -7417,7 +7417,7 @@
         <v>54733</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52099</v>
+        <v>52418</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>55385</v>
@@ -7426,7 +7426,7 @@
         <v>0.9882234253453618</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9406659522589438</v>
+        <v>0.9464365183278253</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -7438,16 +7438,16 @@
         <v>159448</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156842</v>
+        <v>157439</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>160100</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9959260267998891</v>
+        <v>0.9959260267998893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9796493893176766</v>
+        <v>0.9833811149002841</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2719</v>
+        <v>2880</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004242500090562728</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02417768391695562</v>
+        <v>0.02560664992990772</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2664</v>
+        <v>2352</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002799545484105577</v>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01562960383625984</v>
+        <v>0.01380160086791453</v>
       </c>
     </row>
     <row r="13">
@@ -7605,19 +7605,19 @@
         <v>4327</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1764</v>
+        <v>1659</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9476</v>
+        <v>9123</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03847172199381853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0156808197889955</v>
+        <v>0.0147482035700379</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0842552074670575</v>
+        <v>0.08111073186266014</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -7626,19 +7626,19 @@
         <v>1298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3581</v>
+        <v>3554</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02239030830166129</v>
+        <v>0.02239030830166128</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006366566158042569</v>
+        <v>0.006622254338549435</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06177923262828191</v>
+        <v>0.06131058292722442</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -7647,19 +7647,19 @@
         <v>5625</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2906</v>
+        <v>2692</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10636</v>
+        <v>10485</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03300212871860342</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01705200218014776</v>
+        <v>0.01579653171834168</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06240493835997509</v>
+        <v>0.06151418332811744</v>
       </c>
     </row>
     <row r="14">
@@ -7676,19 +7676,19 @@
         <v>107667</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102692</v>
+        <v>102792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110424</v>
+        <v>110388</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9572857779156186</v>
+        <v>0.9572857779156188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9130533238582242</v>
+        <v>0.9139408888658233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9817969562768947</v>
+        <v>0.9814785647027761</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -7697,19 +7697,19 @@
         <v>56672</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54389</v>
+        <v>54416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57601</v>
+        <v>57586</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9776096916983388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9382207673717179</v>
+        <v>0.9386894170727755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9936334338419575</v>
+        <v>0.9933777456614505</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>260</v>
@@ -7718,19 +7718,19 @@
         <v>164339</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>159279</v>
+        <v>159393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>167270</v>
+        <v>167439</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9641983257972913</v>
+        <v>0.964198325797291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9345134612710663</v>
+        <v>0.9351782303073778</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.981396403419898</v>
+        <v>0.9823840903333769</v>
       </c>
     </row>
     <row r="15">
@@ -7825,16 +7825,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2915</v>
+        <v>2991</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.003238867858638978</v>
+        <v>0.003238867858638977</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01123955395417985</v>
+        <v>0.01153184122905558</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -7846,16 +7846,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3324</v>
+        <v>3695</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.00709059369863698</v>
+        <v>0.007090593698636979</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02539974973946851</v>
+        <v>0.02823122876679753</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -7864,19 +7864,19 @@
         <v>1768</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>344</v>
+        <v>494</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4743</v>
+        <v>4400</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00453069493847938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0008824138592009485</v>
+        <v>0.001266119131959844</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01215359769061937</v>
+        <v>0.01127596895396312</v>
       </c>
     </row>
     <row r="17">
@@ -7893,19 +7893,19 @@
         <v>4200</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1533</v>
+        <v>1734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8530</v>
+        <v>8690</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01619376175284266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005910605504353789</v>
+        <v>0.006687129007636509</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03288904820003469</v>
+        <v>0.03350639641370688</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -7914,19 +7914,19 @@
         <v>3527</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1480</v>
+        <v>1445</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6732</v>
+        <v>6904</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0269512611494601</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01130925598190961</v>
+        <v>0.0110434223328399</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05143501372742507</v>
+        <v>0.05275335877401492</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -7935,19 +7935,19 @@
         <v>7727</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4335</v>
+        <v>4381</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12850</v>
+        <v>13295</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01980171039955227</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01110834578913181</v>
+        <v>0.01122706950462584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03293027584843428</v>
+        <v>0.03406852955550155</v>
       </c>
     </row>
     <row r="18">
@@ -7964,19 +7964,19 @@
         <v>254313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>249758</v>
+        <v>249881</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>257132</v>
+        <v>257144</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9805673703885184</v>
+        <v>0.9805673703885183</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9630057017592726</v>
+        <v>0.963480154616387</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9914352071972869</v>
+        <v>0.9914824101551043</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>250</v>
@@ -7985,19 +7985,19 @@
         <v>126425</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>122943</v>
+        <v>122760</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128755</v>
+        <v>128756</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9659581451519028</v>
+        <v>0.9659581451519027</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9393590704690858</v>
+        <v>0.9379583862796854</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9837653800190245</v>
+        <v>0.9837707930281119</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>612</v>
@@ -8006,19 +8006,19 @@
         <v>380738</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>375053</v>
+        <v>374680</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>384245</v>
+        <v>384403</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9756675946619685</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9610994201542071</v>
+        <v>0.9601434218342015</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9846552352547685</v>
+        <v>0.9850595231278552</v>
       </c>
     </row>
     <row r="19">
@@ -8110,19 +8110,19 @@
         <v>1374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3927</v>
+        <v>3934</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01363616798331892</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003373065041149447</v>
+        <v>0.003355117136680093</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03896137670534913</v>
+        <v>0.03903279529381716</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -8131,19 +8131,19 @@
         <v>4178</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2026</v>
+        <v>1965</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7820</v>
+        <v>7357</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01902156030272457</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00922484922116429</v>
+        <v>0.008947802827775105</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03560411625287166</v>
+        <v>0.03349771306167466</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -8152,19 +8152,19 @@
         <v>5552</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3100</v>
+        <v>2907</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9693</v>
+        <v>9832</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01732756923429618</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009675684612767932</v>
+        <v>0.009070817696200766</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03024864189986339</v>
+        <v>0.0306830309300971</v>
       </c>
     </row>
     <row r="21">
@@ -8181,19 +8181,19 @@
         <v>2223</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5434</v>
+        <v>5371</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02205177775743191</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005124502086746534</v>
+        <v>0.005100072890724248</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0539104297110935</v>
+        <v>0.05329175448177335</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -8202,19 +8202,19 @@
         <v>9855</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5897</v>
+        <v>6001</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15503</v>
+        <v>15676</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04487078686766467</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02684710156662562</v>
+        <v>0.02732415053230419</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07058468764620374</v>
+        <v>0.07137157533701309</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -8223,19 +8223,19 @@
         <v>12078</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7551</v>
+        <v>7434</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18612</v>
+        <v>18485</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.03769300011964433</v>
+        <v>0.03769300011964432</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02356343215574858</v>
+        <v>0.02319889330713274</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05808324806484104</v>
+        <v>0.05768850939068364</v>
       </c>
     </row>
     <row r="22">
@@ -8252,19 +8252,19 @@
         <v>97196</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>93767</v>
+        <v>93949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99260</v>
+        <v>99273</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.964312054259249</v>
+        <v>0.9643120542592492</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9302966059061237</v>
+        <v>0.9320967524018517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9847885102739294</v>
+        <v>0.9849188190583246</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>416</v>
@@ -8273,19 +8273,19 @@
         <v>205607</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>199493</v>
+        <v>199223</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>210696</v>
+        <v>210408</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9361076528296108</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9082719323361723</v>
+        <v>0.9070423944966357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9592806136680592</v>
+        <v>0.9579690891517637</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>557</v>
@@ -8294,19 +8294,19 @@
         <v>302804</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>295891</v>
+        <v>295098</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>308225</v>
+        <v>308007</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9449794306460594</v>
+        <v>0.9449794306460597</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9234070600055614</v>
+        <v>0.9209325745294404</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9618980561949868</v>
+        <v>0.9612185739910456</v>
       </c>
     </row>
     <row r="23">
@@ -8411,19 +8411,19 @@
         <v>7991</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3993</v>
+        <v>3842</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15538</v>
+        <v>15841</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02311068643096195</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01154914459862399</v>
+        <v>0.01111012497531473</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04493597175307597</v>
+        <v>0.04581233880232339</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -8432,19 +8432,19 @@
         <v>7991</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3670</v>
+        <v>3849</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15571</v>
+        <v>15907</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02289377688622201</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01051420596785497</v>
+        <v>0.01102599540618454</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04460783885355075</v>
+        <v>0.0455701898520836</v>
       </c>
     </row>
     <row r="25">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2022844312685897</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7214571192530387</v>
+        <v>0.7203229997855616</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -8482,19 +8482,19 @@
         <v>18828</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13212</v>
+        <v>13196</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26232</v>
+        <v>25919</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05444965333928177</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03820786008996432</v>
+        <v>0.03816181224366584</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07586308179623298</v>
+        <v>0.07495874973943646</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -8503,19 +8503,19 @@
         <v>19490</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13583</v>
+        <v>13858</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26731</v>
+        <v>26860</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0558371834965174</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03891357276278285</v>
+        <v>0.03970065594413642</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07657908308566218</v>
+        <v>0.07695101097634006</v>
       </c>
     </row>
     <row r="26">
@@ -8532,7 +8532,7 @@
         <v>2613</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>3276</v>
@@ -8541,7 +8541,7 @@
         <v>0.7977155687314103</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2785428807469613</v>
+        <v>0.2797897602595647</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -8553,19 +8553,19 @@
         <v>318964</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>310215</v>
+        <v>309587</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>326476</v>
+        <v>327163</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9224396602297562</v>
+        <v>0.9224396602297563</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8971381415785059</v>
+        <v>0.8953221715234564</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9441629638036561</v>
+        <v>0.9461507992158757</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>597</v>
@@ -8574,19 +8574,19 @@
         <v>321577</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>313156</v>
+        <v>311700</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>329234</v>
+        <v>328680</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9212690396172606</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8971434797709977</v>
+        <v>0.8929712862671508</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9432058311608047</v>
+        <v>0.9416160583435564</v>
       </c>
     </row>
     <row r="27">
@@ -8678,19 +8678,19 @@
         <v>2692</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>912</v>
+        <v>1105</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5522</v>
+        <v>5861</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.003839609167498866</v>
+        <v>0.003839609167498865</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001300275331520627</v>
+        <v>0.001575612379636481</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007876631230735644</v>
+        <v>0.008361305548750779</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -8699,19 +8699,19 @@
         <v>13097</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7854</v>
+        <v>8170</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20535</v>
+        <v>21672</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01481219500221481</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00888191806866068</v>
+        <v>0.009240339351461308</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02322384665111877</v>
+        <v>0.02451035364632749</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>27</v>
@@ -8720,19 +8720,19 @@
         <v>15789</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10174</v>
+        <v>9942</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>23759</v>
+        <v>23800</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.00995996247743813</v>
+        <v>0.009959962477438132</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006417844789316002</v>
+        <v>0.006271946399841292</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01498792085444381</v>
+        <v>0.01501390995898365</v>
       </c>
     </row>
     <row r="29">
@@ -8749,19 +8749,19 @@
         <v>12076</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7405</v>
+        <v>7283</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18202</v>
+        <v>18468</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.01722593118432055</v>
+        <v>0.01722593118432054</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0105635994326406</v>
+        <v>0.01038961343274579</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02596482737434845</v>
+        <v>0.02634465381481762</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>63</v>
@@ -8770,19 +8770,19 @@
         <v>34799</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26721</v>
+        <v>27401</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44186</v>
+        <v>44721</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0393561053224128</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03021950011828168</v>
+        <v>0.03098844084125571</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04997222673124305</v>
+        <v>0.05057677416065348</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>81</v>
@@ -8791,19 +8791,19 @@
         <v>46875</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36506</v>
+        <v>37287</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>58504</v>
+        <v>57274</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.02956982956669411</v>
+        <v>0.02956982956669412</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02302865032733177</v>
+        <v>0.02352144368754779</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03690548601263922</v>
+        <v>0.03612960427214568</v>
       </c>
     </row>
     <row r="30">
@@ -8820,19 +8820,19 @@
         <v>686243</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>679881</v>
+        <v>679581</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>691675</v>
+        <v>691537</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9789344596481807</v>
+        <v>0.9789344596481805</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9698597404540555</v>
+        <v>0.9694309232214067</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9866833877891754</v>
+        <v>0.9864868634007263</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1589</v>
@@ -8841,19 +8841,19 @@
         <v>836321</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>824743</v>
+        <v>824370</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>846305</v>
+        <v>845813</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9458316996753723</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9327373579210414</v>
+        <v>0.9323148829620574</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9571229264518446</v>
+        <v>0.9565662103808634</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2571</v>
@@ -8862,19 +8862,19 @@
         <v>1522564</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1508808</v>
+        <v>1509450</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1534329</v>
+        <v>1534687</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9604702079558677</v>
+        <v>0.9604702079558679</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9517923042337202</v>
+        <v>0.9521971237865875</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9678916338731828</v>
+        <v>0.9681173158336166</v>
       </c>
     </row>
     <row r="31">
